--- a/Excel and Maths/TeleOpMover.xlsx
+++ b/Excel and Maths/TeleOpMover.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\Documents\Robotics Control Code\Excel and Maths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51067C0-ACB4-41B6-BC10-81805BB71DBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C64BC-5DE4-4DCF-AC97-F9A25BAE8296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7C35024F-752A-4EFE-A1C6-1118AB138753}"/>
   </bookViews>
@@ -216,79 +216,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-0.99</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.98004999999999998</c:v>
+                  <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.97014975000000003</c:v>
+                  <c:v>0.48799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.96029900125000001</c:v>
+                  <c:v>0.59040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.95049750624374996</c:v>
+                  <c:v>0.67232000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.94074501871253124</c:v>
+                  <c:v>0.73785600000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.93104129361896859</c:v>
+                  <c:v>0.79028480000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.92138608715087378</c:v>
+                  <c:v>0.83222784000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.91177915671511944</c:v>
+                  <c:v>0.86578227200000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.90222026093154384</c:v>
+                  <c:v>0.89262581760000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.89270915962688613</c:v>
+                  <c:v>0.91410065408000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.88324561382875166</c:v>
+                  <c:v>0.93128052326400002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.87382938575960789</c:v>
+                  <c:v>0.94502441861120001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.8644602388308098</c:v>
+                  <c:v>0.95601953488895997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.8551379376366558</c:v>
+                  <c:v>0.96481562791116793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.84586224794847253</c:v>
+                  <c:v>0.97185250232893439</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.83663293670873018</c:v>
+                  <c:v>0.97748200186314749</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.82744977202518655</c:v>
+                  <c:v>0.98198560149051795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.81831252316506065</c:v>
+                  <c:v>0.98558848119241438</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.80922096054923531</c:v>
+                  <c:v>0.98847078495393148</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.80017485574648917</c:v>
+                  <c:v>0.99077662796314514</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.79117398146775675</c:v>
+                  <c:v>0.99262130237051616</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.78221811156041798</c:v>
+                  <c:v>0.9940970418964129</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.77330702100261595</c:v>
+                  <c:v>0.99527763351713028</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.76444048589760283</c:v>
+                  <c:v>0.99622210681370427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,16 +1030,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,15 +1420,15 @@
       </c>
       <c r="B6">
         <f>B2</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>B3*(A6-B6)</f>
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D30" si="0">B6+C6</f>
-        <v>-0.99</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1438,15 +1438,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B30" si="1">D6</f>
-        <v>-0.99</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
         <f>B3*(A7-B7)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-0.98004999999999998</v>
+        <v>0.36000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,15 +1456,15 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>-0.98004999999999998</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="C8">
         <f>B3*(A8-B8)</f>
-        <v>9.9002499999999993E-3</v>
+        <v>0.12799999999999997</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-0.97014975000000003</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,15 +1474,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>-0.97014975000000003</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C9">
         <f>B3*(A9-B9)</f>
-        <v>9.8507487500000008E-3</v>
+        <v>0.1024</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-0.96029900125000001</v>
+        <v>0.59040000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,15 +1492,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>-0.96029900125000001</v>
+        <v>0.59040000000000004</v>
       </c>
       <c r="C10">
         <f>B3*(A10-B10)</f>
-        <v>9.8014950062500009E-3</v>
+        <v>8.1919999999999993E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-0.95049750624374996</v>
+        <v>0.67232000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,15 +1510,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>-0.95049750624374996</v>
+        <v>0.67232000000000003</v>
       </c>
       <c r="C11">
         <f>B3*(A11-B11)</f>
-        <v>9.7524875312187502E-3</v>
+        <v>6.5535999999999997E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-0.94074501871253124</v>
+        <v>0.73785600000000007</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,15 +1528,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>-0.94074501871253124</v>
+        <v>0.73785600000000007</v>
       </c>
       <c r="C12">
         <f>B3*(A12-B12)</f>
-        <v>9.7037250935626557E-3</v>
+        <v>5.2428799999999991E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-0.93104129361896859</v>
+        <v>0.79028480000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,15 +1546,15 @@
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>-0.93104129361896859</v>
+        <v>0.79028480000000001</v>
       </c>
       <c r="C13">
         <f>B3*(A13-B13)</f>
-        <v>9.6552064680948436E-3</v>
+        <v>4.1943040000000001E-2</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-0.92138608715087378</v>
+        <v>0.83222784000000005</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,15 +1564,15 @@
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>-0.92138608715087378</v>
+        <v>0.83222784000000005</v>
       </c>
       <c r="C14">
         <f>B3*(A14-B14)</f>
-        <v>9.606930435754368E-3</v>
+        <v>3.3554431999999988E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>-0.91177915671511944</v>
+        <v>0.86578227200000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,15 +1582,15 @@
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>-0.91177915671511944</v>
+        <v>0.86578227200000002</v>
       </c>
       <c r="C15">
         <f>B3*(A15-B15)</f>
-        <v>9.558895783575598E-3</v>
+        <v>2.6843545599999998E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-0.90222026093154384</v>
+        <v>0.89262581760000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,15 +1600,15 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>-0.90222026093154384</v>
+        <v>0.89262581760000004</v>
       </c>
       <c r="C16">
         <f>B3*(A16-B16)</f>
-        <v>9.5111013046577184E-3</v>
+        <v>2.1474836479999995E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>-0.89270915962688613</v>
+        <v>0.91410065408000007</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,15 +1618,15 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>-0.89270915962688613</v>
+        <v>0.91410065408000007</v>
       </c>
       <c r="C17">
         <f>B3*(A17-B17)</f>
-        <v>9.4635457981344304E-3</v>
+        <v>1.7179869183999986E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>-0.88324561382875166</v>
+        <v>0.93128052326400002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,15 +1636,15 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>-0.88324561382875166</v>
+        <v>0.93128052326400002</v>
       </c>
       <c r="C18">
         <f>B3*(A18-B18)</f>
-        <v>9.4162280691437589E-3</v>
+        <v>1.3743895347199997E-2</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>-0.87382938575960789</v>
+        <v>0.94502441861120001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,15 +1654,15 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>-0.87382938575960789</v>
+        <v>0.94502441861120001</v>
       </c>
       <c r="C19">
         <f>B3*(A19-B19)</f>
-        <v>9.3691469287980403E-3</v>
+        <v>1.0995116277759998E-2</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-0.8644602388308098</v>
+        <v>0.95601953488895997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,15 +1672,15 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>-0.8644602388308098</v>
+        <v>0.95601953488895997</v>
       </c>
       <c r="C20">
         <f>B3*(A20-B20)</f>
-        <v>9.3223011941540486E-3</v>
+        <v>8.7960930222080076E-3</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>-0.8551379376366558</v>
+        <v>0.96481562791116793</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,15 +1690,15 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>-0.8551379376366558</v>
+        <v>0.96481562791116793</v>
       </c>
       <c r="C21">
         <f>B3*(A21-B21)</f>
-        <v>9.2756896881832796E-3</v>
+        <v>7.0368744177664146E-3</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>-0.84586224794847253</v>
+        <v>0.97185250232893439</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,15 +1708,15 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>-0.84586224794847253</v>
+        <v>0.97185250232893439</v>
       </c>
       <c r="C22">
         <f>B3*(A22-B22)</f>
-        <v>9.2293112397423636E-3</v>
+        <v>5.629499534213123E-3</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>-0.83663293670873018</v>
+        <v>0.97748200186314749</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,15 +1726,15 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>-0.83663293670873018</v>
+        <v>0.97748200186314749</v>
       </c>
       <c r="C23">
         <f>B3*(A23-B23)</f>
-        <v>9.1831646835436511E-3</v>
+        <v>4.5035996273705024E-3</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>-0.82744977202518655</v>
+        <v>0.98198560149051795</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,15 +1744,15 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>-0.82744977202518655</v>
+        <v>0.98198560149051795</v>
       </c>
       <c r="C24">
         <f>B3*(A24-B24)</f>
-        <v>9.1372488601259329E-3</v>
+        <v>3.602879701896411E-3</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>-0.81831252316506065</v>
+        <v>0.98558848119241438</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,15 +1762,15 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>-0.81831252316506065</v>
+        <v>0.98558848119241438</v>
       </c>
       <c r="C25">
         <f>B3*(A25-B25)</f>
-        <v>9.0915626158253032E-3</v>
+        <v>2.8823037615171247E-3</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>-0.80922096054923531</v>
+        <v>0.98847078495393148</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,15 +1780,15 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>-0.80922096054923531</v>
+        <v>0.98847078495393148</v>
       </c>
       <c r="C26">
         <f>B3*(A26-B26)</f>
-        <v>9.0461048027461761E-3</v>
+        <v>2.3058430092137041E-3</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>-0.80017485574648917</v>
+        <v>0.99077662796314514</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,15 +1798,15 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>-0.80017485574648917</v>
+        <v>0.99077662796314514</v>
       </c>
       <c r="C27">
         <f>B3*(A27-B27)</f>
-        <v>9.0008742787324458E-3</v>
+        <v>1.8446744073709722E-3</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>-0.79117398146775675</v>
+        <v>0.99262130237051616</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,15 +1816,15 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>-0.79117398146775675</v>
+        <v>0.99262130237051616</v>
       </c>
       <c r="C28">
         <f>B3*(A28-B28)</f>
-        <v>8.955869907338784E-3</v>
+        <v>1.4757395258967688E-3</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>-0.78221811156041798</v>
+        <v>0.9940970418964129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,15 +1834,15 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>-0.78221811156041798</v>
+        <v>0.9940970418964129</v>
       </c>
       <c r="C29">
         <f>B3*(A29-B29)</f>
-        <v>8.911090557802091E-3</v>
+        <v>1.1805916207174195E-3</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>-0.77330702100261595</v>
+        <v>0.99527763351713028</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,15 +1852,15 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>-0.77330702100261595</v>
+        <v>0.99527763351713028</v>
       </c>
       <c r="C30">
         <f>B3*(A30-B30)</f>
-        <v>8.8665351050130799E-3</v>
+        <v>9.4447329657394447E-4</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>-0.76444048589760283</v>
+        <v>0.99622210681370427</v>
       </c>
     </row>
   </sheetData>

--- a/Excel and Maths/TeleOpMover.xlsx
+++ b/Excel and Maths/TeleOpMover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\Documents\Robotics Control Code\Excel and Maths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C64BC-5DE4-4DCF-AC97-F9A25BAE8296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598E30E-DD04-40B3-984D-B3D9B5972A8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7C35024F-752A-4EFE-A1C6-1118AB138753}"/>
   </bookViews>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
